--- a/REGULAR/MAYORS OFFICE/LANTING, AILEEN.xlsx
+++ b/REGULAR/MAYORS OFFICE/LANTING, AILEEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAYORS OFFICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0B09F-CCDE-4499-B176-3FCFA01C2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="465">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1423,12 +1424,18 @@
   </si>
   <si>
     <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>10/4,5/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2313,7 +2320,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2363,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2427,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2487,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2553,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2616,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2714,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2773,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2838,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2881,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2956,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,7 +3142,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3208,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3266,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3332,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3388,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3456,7 +3463,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3499,7 +3506,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,7 +3572,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3628,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3719,7 +3726,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3782,7 +3789,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3831,7 +3838,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3848,25 +3855,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K770" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K773" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3878,13 +3885,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3893,14 +3900,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4204,7 +4211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4214,7 +4221,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4222,34 +4229,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K770"/>
+  <dimension ref="A2:K773"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A620" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A665" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="F632" sqref="F632"/>
+      <selection pane="bottomLeft" activeCell="K667" sqref="K667"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4270,7 +4277,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4288,7 +4295,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4306,7 +4313,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4314,7 +4321,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4327,7 +4334,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4344,7 +4351,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4379,7 +4386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4388,7 +4395,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>115.47200000000004</v>
+        <v>115.97200000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4398,12 +4405,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>102.25</v>
+        <v>100.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4425,7 +4432,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36069</v>
       </c>
@@ -4445,7 +4452,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36100</v>
@@ -4466,7 +4473,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>36130</v>
@@ -4487,7 +4494,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4505,7 +4512,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35431</v>
       </c>
@@ -4525,7 +4532,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35462</v>
@@ -4546,7 +4553,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A22" si="0">EDATE(A16,1)</f>
         <v>35490</v>
@@ -4571,7 +4578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -4589,7 +4596,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f>EDATE(A17,1)</f>
         <v>35521</v>
@@ -4610,7 +4617,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4631,7 +4638,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4652,7 +4659,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4677,7 +4684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -4695,7 +4702,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35643</v>
@@ -4720,7 +4727,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -4738,7 +4745,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f>EDATE(A24,1)</f>
         <v>35674</v>
@@ -4763,7 +4770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>51</v>
@@ -4785,7 +4792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -4803,7 +4810,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <f>EDATE(A26,1)</f>
         <v>35704</v>
@@ -4826,7 +4833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -4848,7 +4855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -4866,7 +4873,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <f>EDATE(A29,1)</f>
         <v>35735</v>
@@ -4889,7 +4896,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -4911,7 +4918,7 @@
         <v>35622</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4929,7 +4936,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <f>EDATE(A32,1)</f>
         <v>35765</v>
@@ -4954,7 +4961,7 @@
         <v>35654</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>58</v>
@@ -4976,7 +4983,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>59</v>
       </c>
@@ -4994,7 +5001,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35796</v>
       </c>
@@ -5018,7 +5025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>61</v>
@@ -5040,7 +5047,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35827</v>
@@ -5065,7 +5072,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>65</v>
@@ -5087,7 +5094,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35855</v>
@@ -5112,7 +5119,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>57</v>
@@ -5134,7 +5141,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -5152,7 +5159,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>35886</v>
@@ -5177,7 +5184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>57</v>
@@ -5199,7 +5206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -5221,7 +5228,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f>EDATE(A45,1)</f>
         <v>35916</v>
@@ -5246,7 +5253,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A59" si="1">EDATE(A48,1)</f>
         <v>35947</v>
@@ -5267,7 +5274,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5294,7 +5301,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>74</v>
@@ -5314,7 +5321,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A50,1)</f>
         <v>36008</v>
@@ -5339,7 +5346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>76</v>
@@ -5361,7 +5368,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36039</v>
@@ -5382,7 +5389,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -5407,7 +5414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>53</v>
@@ -5427,7 +5434,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>79</v>
@@ -5449,7 +5456,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A55,1)</f>
         <v>36100</v>
@@ -5474,7 +5481,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -5499,7 +5506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>83</v>
@@ -5521,7 +5528,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>84</v>
       </c>
@@ -5539,7 +5546,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36161</v>
       </c>
@@ -5563,7 +5570,7 @@
         <v>36373</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>85</v>
@@ -5585,7 +5592,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36192</v>
@@ -5610,7 +5617,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A84" si="2">EDATE(A64,1)</f>
         <v>36220</v>
@@ -5635,7 +5642,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -5660,7 +5667,7 @@
         <v>36498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>88</v>
@@ -5682,7 +5689,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36281</v>
@@ -5707,7 +5714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>90</v>
@@ -5729,7 +5736,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36312</v>
@@ -5754,7 +5761,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -5776,7 +5783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -5796,7 +5803,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>61</v>
@@ -5818,7 +5825,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A70,1)</f>
         <v>36342</v>
@@ -5843,7 +5850,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -5868,7 +5875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>95</v>
@@ -5890,7 +5897,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36404</v>
@@ -5915,7 +5922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>97</v>
@@ -5937,7 +5944,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>36434</v>
@@ -5962,7 +5969,7 @@
         <v>36260</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>53</v>
@@ -5982,7 +5989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>48</v>
@@ -6004,7 +6011,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -6022,7 +6029,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A79,1)</f>
         <v>36465</v>
@@ -6047,7 +6054,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -6072,7 +6079,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>77</v>
@@ -6094,7 +6101,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>103</v>
@@ -6116,7 +6123,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>104</v>
       </c>
@@ -6134,7 +6141,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>36526</v>
       </c>
@@ -6158,7 +6165,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>36557</v>
@@ -6183,7 +6190,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A103" si="3">EDATE(A89,1)</f>
         <v>36586</v>
@@ -6208,7 +6215,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>107</v>
@@ -6230,7 +6237,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36617</v>
@@ -6255,7 +6262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>107</v>
@@ -6277,7 +6284,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36647</v>
@@ -6302,7 +6309,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -6327,7 +6334,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -6352,7 +6359,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -6373,7 +6380,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f>EDATE(A97,1)</f>
         <v>36770</v>
@@ -6396,7 +6403,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -6414,7 +6421,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>36800</v>
@@ -6437,7 +6444,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -6455,7 +6462,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36831</v>
@@ -6476,7 +6483,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -6501,7 +6508,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>115</v>
@@ -6523,7 +6530,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>51</v>
@@ -6545,7 +6552,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -6563,7 +6570,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>118</v>
       </c>
@@ -6581,7 +6588,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>36892</v>
       </c>
@@ -6605,7 +6612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6623,7 +6630,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>36923</v>
@@ -6644,7 +6651,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A125" si="4">EDATE(A110,1)</f>
         <v>36951</v>
@@ -6669,7 +6676,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -6687,7 +6694,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>36982</v>
@@ -6712,7 +6719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -6730,7 +6737,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37012</v>
@@ -6751,7 +6758,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -6772,7 +6779,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -6797,7 +6804,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6815,7 +6822,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37104</v>
@@ -6840,7 +6847,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6858,7 +6865,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37135</v>
@@ -6883,7 +6890,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>125</v>
@@ -6903,7 +6910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6921,7 +6928,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37165</v>
@@ -6942,7 +6949,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -6967,7 +6974,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -6989,7 +6996,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>77</v>
@@ -7011,7 +7018,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -7029,7 +7036,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f>EDATE(A125,1)</f>
         <v>37226</v>
@@ -7054,7 +7061,7 @@
         <v>37207</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -7072,7 +7079,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>130</v>
       </c>
@@ -7090,7 +7097,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>37257</v>
       </c>
@@ -7114,7 +7121,7 @@
         <v>37288</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -7136,7 +7143,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>48</v>
@@ -7158,7 +7165,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -7176,7 +7183,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A132,1)</f>
         <v>37288</v>
@@ -7197,7 +7204,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A155" si="5">EDATE(A136,1)</f>
         <v>37316</v>
@@ -7222,7 +7229,7 @@
         <v>37440</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>48</v>
@@ -7244,7 +7251,7 @@
         <v>37563</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -7266,7 +7273,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -7286,7 +7293,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -7304,7 +7311,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A137,1)</f>
         <v>37347</v>
@@ -7325,7 +7332,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -7346,7 +7353,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -7367,7 +7374,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -7388,7 +7395,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -7413,7 +7420,7 @@
         <v>37598</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7431,7 +7438,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37500</v>
@@ -7456,7 +7463,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -7478,7 +7485,7 @@
         <v>37416</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -7498,7 +7505,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -7516,7 +7523,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f>EDATE(A148,1)</f>
         <v>37530</v>
@@ -7541,7 +7548,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -7559,7 +7566,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37561</v>
@@ -7580,7 +7587,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -7605,7 +7612,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
@@ -7623,7 +7630,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48" t="s">
         <v>137</v>
       </c>
@@ -7641,7 +7648,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>37622</v>
       </c>
@@ -7665,7 +7672,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -7683,7 +7690,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>37653</v>
@@ -7704,7 +7711,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" ref="A161:A174" si="6">EDATE(A160,1)</f>
         <v>37681</v>
@@ -7725,7 +7732,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -7746,7 +7753,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -7771,7 +7778,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>112</v>
@@ -7791,7 +7798,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -7809,7 +7816,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A163,1)</f>
         <v>37773</v>
@@ -7834,7 +7841,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -7852,7 +7859,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>37803</v>
@@ -7873,7 +7880,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -7896,7 +7903,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -7914,7 +7921,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>37865</v>
@@ -7935,7 +7942,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -7956,7 +7963,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -7977,7 +7984,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -7998,7 +8005,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="48" t="s">
         <v>143</v>
       </c>
@@ -8016,7 +8023,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>37987</v>
       </c>
@@ -8040,7 +8047,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f>EDATE(A176,1)</f>
         <v>38018</v>
@@ -8065,7 +8072,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" ref="A178:A185" si="7">EDATE(A177,1)</f>
         <v>38047</v>
@@ -8090,7 +8097,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>147</v>
@@ -8112,7 +8119,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38078</v>
@@ -8137,7 +8144,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -8162,7 +8169,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -8187,7 +8194,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -8212,7 +8219,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -8237,7 +8244,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -8260,7 +8267,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>152</v>
@@ -8282,7 +8289,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>38261</v>
@@ -8307,7 +8314,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>155</v>
@@ -8329,7 +8336,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>157</v>
@@ -8351,7 +8358,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A187,1)</f>
         <v>38292</v>
@@ -8374,7 +8381,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>159</v>
@@ -8396,7 +8403,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38322</v>
@@ -8421,7 +8428,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -8439,7 +8446,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="48" t="s">
         <v>161</v>
       </c>
@@ -8457,7 +8464,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38353</v>
       </c>
@@ -8479,7 +8486,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>163</v>
@@ -8501,7 +8508,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41">
         <f>EDATE(A195,1)</f>
         <v>38384</v>
@@ -8526,7 +8533,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>165</v>
@@ -8548,7 +8555,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41">
         <f>EDATE(A197,1)</f>
         <v>38412</v>
@@ -8573,7 +8580,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="41">
         <f t="shared" ref="A200:A213" si="8">EDATE(A199,1)</f>
         <v>38443</v>
@@ -8598,7 +8605,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="41">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -8623,7 +8630,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="41">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -8648,7 +8655,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="41">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -8673,7 +8680,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -8695,7 +8702,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>169</v>
@@ -8717,7 +8724,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41">
         <f>EDATE(A203,1)</f>
         <v>38565</v>
@@ -8742,7 +8749,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="41">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -8767,7 +8774,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>112</v>
@@ -8787,7 +8794,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -8805,7 +8812,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>175</v>
@@ -8825,7 +8832,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="41">
         <f>EDATE(A207,1)</f>
         <v>38626</v>
@@ -8850,7 +8857,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -8875,7 +8882,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="41">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -8900,7 +8907,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>180</v>
@@ -8922,7 +8929,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>181</v>
@@ -8942,7 +8949,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="48" t="s">
         <v>182</v>
       </c>
@@ -8960,7 +8967,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38718</v>
       </c>
@@ -8984,7 +8991,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -9006,7 +9013,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38749</v>
@@ -9031,7 +9038,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A240" si="9">EDATE(A219,1)</f>
         <v>38777</v>
@@ -9056,7 +9063,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>187</v>
@@ -9078,7 +9085,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>189</v>
@@ -9100,7 +9107,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>38808</v>
@@ -9125,7 +9132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>178</v>
@@ -9147,7 +9154,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>192</v>
@@ -9169,7 +9176,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A223,1)</f>
         <v>38838</v>
@@ -9194,7 +9201,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -9219,7 +9226,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -9244,7 +9251,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>196</v>
@@ -9266,7 +9273,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>38930</v>
@@ -9289,7 +9296,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -9311,7 +9318,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>48</v>
@@ -9333,7 +9340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>48</v>
@@ -9355,7 +9362,7 @@
         <v>38725</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -9377,7 +9384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>48</v>
@@ -9399,7 +9406,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9419,7 +9426,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>203</v>
@@ -9441,7 +9448,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f>EDATE(A230,1)</f>
         <v>38961</v>
@@ -9466,7 +9473,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -9491,7 +9498,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -9516,7 +9523,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>207</v>
@@ -9538,7 +9545,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>39052</v>
@@ -9563,7 +9570,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="48" t="s">
         <v>209</v>
       </c>
@@ -9581,7 +9588,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39083</v>
       </c>
@@ -9601,7 +9608,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A244,1)</f>
         <v>39114</v>
@@ -9622,7 +9629,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A261" si="10">EDATE(A245,1)</f>
         <v>39142</v>
@@ -9643,7 +9650,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="10"/>
         <v>39173</v>
@@ -9664,7 +9671,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -9685,7 +9692,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -9706,7 +9713,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -9729,7 +9736,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>48</v>
@@ -9751,7 +9758,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>48</v>
@@ -9773,7 +9780,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13">
@@ -9791,7 +9798,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A250,1)</f>
         <v>39295</v>
@@ -9816,7 +9823,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -9834,7 +9841,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39326</v>
@@ -9859,7 +9866,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>178</v>
@@ -9881,7 +9888,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>53</v>
@@ -9901,7 +9908,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9919,7 +9926,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39356</v>
@@ -9944,7 +9951,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -9967,7 +9974,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>180</v>
@@ -9989,7 +9996,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>219</v>
@@ -10011,7 +10018,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39417</v>
@@ -10036,7 +10043,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48" t="s">
         <v>221</v>
       </c>
@@ -10054,7 +10061,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -10078,7 +10085,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A266,1)</f>
         <v>39479</v>
@@ -10103,7 +10110,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A281" si="11">EDATE(A267,1)</f>
         <v>39508</v>
@@ -10128,7 +10135,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>226</v>
@@ -10150,7 +10157,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39539</v>
@@ -10175,7 +10182,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>228</v>
@@ -10197,7 +10204,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -10222,7 +10229,7 @@
       <c r="J272" s="12"/>
       <c r="K272" s="15"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -10247,7 +10254,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -10272,7 +10279,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>53</v>
@@ -10292,7 +10299,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>232</v>
@@ -10314,7 +10321,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>39661</v>
@@ -10339,7 +10346,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -10362,7 +10369,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>235</v>
@@ -10384,7 +10391,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>39722</v>
@@ -10409,7 +10416,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -10432,7 +10439,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>178</v>
@@ -10454,7 +10461,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>240</v>
@@ -10476,7 +10483,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>39783</v>
@@ -10497,7 +10504,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="48" t="s">
         <v>222</v>
       </c>
@@ -10515,7 +10522,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>39814</v>
       </c>
@@ -10539,7 +10546,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>155</v>
@@ -10559,7 +10566,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>180</v>
@@ -10581,7 +10588,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>53</v>
@@ -10601,7 +10608,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10623,7 +10630,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10645,7 +10652,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10665,7 +10672,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>48</v>
@@ -10687,7 +10694,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>248</v>
@@ -10709,7 +10716,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="41">
         <f>EDATE(A286,1)</f>
         <v>39845</v>
@@ -10734,7 +10741,7 @@
       <c r="J295" s="12"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="41">
         <f t="shared" ref="A296:A310" si="12">EDATE(A295,1)</f>
         <v>39873</v>
@@ -10759,7 +10766,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>187</v>
@@ -10781,7 +10788,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>252</v>
@@ -10803,7 +10810,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="41">
         <f>EDATE(A296,1)</f>
         <v>39904</v>
@@ -10828,7 +10835,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="41">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -10853,7 +10860,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -10875,7 +10882,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="41">
         <f>EDATE(A300,1)</f>
         <v>39965</v>
@@ -10900,7 +10907,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="41">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -10925,7 +10932,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="41">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -10950,7 +10957,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="41">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -10975,7 +10982,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>53</v>
@@ -10995,7 +11002,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>187</v>
@@ -11017,7 +11024,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>261</v>
@@ -11039,7 +11046,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="41">
         <f>EDATE(A305,1)</f>
         <v>40087</v>
@@ -11062,7 +11069,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="41">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -11087,7 +11094,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>264</v>
@@ -11109,7 +11116,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="41">
         <f>EDATE(A310,1)</f>
         <v>40148</v>
@@ -11134,7 +11141,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="52" t="s">
         <v>266</v>
       </c>
@@ -11152,7 +11159,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="41">
         <v>40179</v>
       </c>
@@ -11176,7 +11183,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A314,1)</f>
         <v>40210</v>
@@ -11201,7 +11208,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A330" si="13">EDATE(A315,1)</f>
         <v>40238</v>
@@ -11226,7 +11233,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>270</v>
@@ -11248,7 +11255,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>40269</v>
@@ -11273,7 +11280,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -11298,7 +11305,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -11323,7 +11330,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>270</v>
@@ -11345,7 +11352,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40360</v>
@@ -11370,7 +11377,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -11395,7 +11402,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>275</v>
@@ -11417,7 +11424,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40422</v>
@@ -11440,7 +11447,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>178</v>
@@ -11462,7 +11469,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>53</v>
@@ -11482,7 +11489,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>279</v>
@@ -11504,7 +11511,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>40452</v>
@@ -11529,7 +11536,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -11554,7 +11561,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>281</v>
@@ -11576,7 +11583,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>40513</v>
@@ -11601,7 +11608,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="48" t="s">
         <v>283</v>
       </c>
@@ -11619,7 +11626,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>40544</v>
       </c>
@@ -11643,7 +11650,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>45</v>
@@ -11665,7 +11672,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -11683,7 +11690,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A334,1)</f>
         <v>40575</v>
@@ -11708,7 +11715,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -11726,7 +11733,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>40603</v>
@@ -11751,7 +11758,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -11769,7 +11776,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>40634</v>
@@ -11794,7 +11801,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -11816,7 +11823,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -11838,7 +11845,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>53</v>
@@ -11858,7 +11865,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -11876,7 +11883,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A341,1)</f>
         <v>40664</v>
@@ -11901,7 +11908,7 @@
         <v>40579</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>155</v>
@@ -11923,7 +11930,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -11941,7 +11948,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f>EDATE(A346,1)</f>
         <v>40695</v>
@@ -11962,7 +11969,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f t="shared" ref="A350:A352" si="14">EDATE(A349,1)</f>
         <v>40725</v>
@@ -11983,7 +11990,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -12004,7 +12011,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -12029,7 +12036,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>178</v>
@@ -12051,7 +12058,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -12071,7 +12078,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>53</v>
@@ -12091,7 +12098,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>45</v>
@@ -12113,7 +12120,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -12131,7 +12138,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A352,1)</f>
         <v>40817</v>
@@ -12156,7 +12163,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -12174,7 +12181,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40848</v>
@@ -12195,7 +12202,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A360,1)</f>
         <v>40878</v>
@@ -12220,7 +12227,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>180</v>
@@ -12242,7 +12249,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>297</v>
@@ -12260,7 +12267,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>48</v>
@@ -12282,7 +12289,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>48</v>
@@ -12304,7 +12311,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="41"/>
       <c r="B366" s="15"/>
       <c r="C366" s="13">
@@ -12322,7 +12329,7 @@
       <c r="J366" s="12"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="48" t="s">
         <v>300</v>
       </c>
@@ -12340,7 +12347,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40909</v>
       </c>
@@ -12364,7 +12371,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>48</v>
@@ -12386,7 +12393,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>53</v>
@@ -12406,7 +12413,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>53</v>
@@ -12426,7 +12433,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -12444,7 +12451,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f>EDATE(A368,1)</f>
         <v>40940</v>
@@ -12469,7 +12476,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13">
@@ -12487,7 +12494,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f>EDATE(A373,1)</f>
         <v>40969</v>
@@ -12512,7 +12519,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>178</v>
@@ -12534,7 +12541,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13">
@@ -12552,7 +12559,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f>EDATE(A375,1)</f>
         <v>41000</v>
@@ -12577,7 +12584,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13">
@@ -12595,7 +12602,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A378,1)</f>
         <v>41030</v>
@@ -12620,7 +12627,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>60</v>
@@ -12642,7 +12649,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>48</v>
@@ -12664,7 +12671,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12686,7 +12693,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
@@ -12704,7 +12711,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f>EDATE(A380,1)</f>
         <v>41061</v>
@@ -12727,7 +12734,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>180</v>
@@ -12749,7 +12756,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -12769,7 +12776,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -12787,7 +12794,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A385,1)</f>
         <v>41091</v>
@@ -12808,7 +12815,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" ref="A390:A392" si="15">EDATE(A389,1)</f>
         <v>41122</v>
@@ -12829,7 +12836,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -12850,7 +12857,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -12875,7 +12882,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>48</v>
@@ -12897,7 +12904,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13">
@@ -12915,7 +12922,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41214</v>
@@ -12940,7 +12947,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13">
@@ -12958,7 +12965,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41244</v>
@@ -12983,7 +12990,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -13001,7 +13008,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="48" t="s">
         <v>318</v>
       </c>
@@ -13019,7 +13026,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="41">
         <v>41275</v>
       </c>
@@ -13043,7 +13050,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="42">
@@ -13061,7 +13068,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41306</v>
@@ -13082,7 +13089,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A425" si="16">EDATE(A402,1)</f>
         <v>41334</v>
@@ -13107,7 +13114,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>48</v>
@@ -13129,7 +13136,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -13151,7 +13158,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>48</v>
@@ -13173,7 +13180,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A403,1)</f>
         <v>41365</v>
@@ -13196,7 +13203,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>45</v>
@@ -13216,7 +13223,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="42">
@@ -13234,7 +13241,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A407,1)</f>
         <v>41395</v>
@@ -13259,7 +13266,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="42">
@@ -13277,7 +13284,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>41426</v>
@@ -13302,7 +13309,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="42">
@@ -13320,7 +13327,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>41456</v>
@@ -13345,7 +13352,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="42">
@@ -13363,7 +13370,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>41487</v>
@@ -13384,7 +13391,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -13409,7 +13416,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>178</v>
@@ -13431,7 +13438,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>112</v>
@@ -13451,7 +13458,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -13471,7 +13478,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="42">
@@ -13489,7 +13496,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f>EDATE(A417,1)</f>
         <v>41548</v>
@@ -13514,7 +13521,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="42">
@@ -13532,7 +13539,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f>EDATE(A422,1)</f>
         <v>41579</v>
@@ -13553,7 +13560,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -13578,7 +13585,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>187</v>
@@ -13600,7 +13607,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="48" t="s">
         <v>330</v>
       </c>
@@ -13618,7 +13625,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>41640</v>
       </c>
@@ -13642,7 +13649,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>187</v>
@@ -13662,7 +13669,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>45</v>
@@ -13684,7 +13691,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -13702,7 +13709,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A428,1)</f>
         <v>41671</v>
@@ -13723,7 +13730,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" ref="A433:A447" si="17">EDATE(A432,1)</f>
         <v>41699</v>
@@ -13748,7 +13755,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -13766,7 +13773,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f>EDATE(A433,1)</f>
         <v>41730</v>
@@ -13787,7 +13794,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -13810,7 +13817,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>48</v>
@@ -13832,7 +13839,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>112</v>
@@ -13852,7 +13859,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>45</v>
@@ -13874,7 +13881,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>337</v>
@@ -13896,7 +13903,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>41791</v>
@@ -13921,7 +13928,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13">
@@ -13939,7 +13946,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f>EDATE(A441,1)</f>
         <v>41821</v>
@@ -13964,7 +13971,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -13989,7 +13996,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>341</v>
@@ -14011,7 +14018,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f>EDATE(A444,1)</f>
         <v>41883</v>
@@ -14036,7 +14043,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -14061,7 +14068,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>187</v>
@@ -14083,7 +14090,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>344</v>
@@ -14105,7 +14112,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>41944</v>
@@ -14130,7 +14137,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>48</v>
@@ -14152,7 +14159,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>347</v>
@@ -14174,7 +14181,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>41974</v>
@@ -14199,7 +14206,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="48" t="s">
         <v>349</v>
       </c>
@@ -14217,7 +14224,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42005</v>
       </c>
@@ -14241,7 +14248,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>350</v>
@@ -14263,7 +14270,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A455,1)</f>
         <v>42036</v>
@@ -14288,7 +14295,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" ref="A458:A475" si="18">EDATE(A457,1)</f>
         <v>42064</v>
@@ -14309,7 +14316,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -14334,7 +14341,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>48</v>
@@ -14356,7 +14363,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>353</v>
@@ -14378,7 +14385,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f>EDATE(A459,1)</f>
         <v>42125</v>
@@ -14403,7 +14410,7 @@
         <v>42129</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>112</v>
@@ -14423,7 +14430,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>155</v>
@@ -14445,7 +14452,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>45</v>
@@ -14467,7 +14474,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>48</v>
@@ -14489,7 +14496,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>357</v>
@@ -14509,7 +14516,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f>EDATE(A462,1)</f>
         <v>42156</v>
@@ -14534,7 +14541,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -14559,7 +14566,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -14584,7 +14591,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -14606,7 +14613,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>42248</v>
@@ -14631,7 +14638,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>363</v>
@@ -14653,7 +14660,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>42278</v>
@@ -14678,7 +14685,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -14703,7 +14710,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>53</v>
@@ -14723,7 +14730,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>77</v>
@@ -14745,7 +14752,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -14767,7 +14774,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -14789,7 +14796,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>369</v>
@@ -14811,7 +14818,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f>EDATE(A475,1)</f>
         <v>42339</v>
@@ -14836,7 +14843,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="48" t="s">
         <v>371</v>
       </c>
@@ -14854,7 +14861,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>42370</v>
       </c>
@@ -14878,7 +14885,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>125</v>
@@ -14898,7 +14905,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>68</v>
@@ -14918,7 +14925,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13">
@@ -14936,7 +14943,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f>EDATE(A483,1)</f>
         <v>42401</v>
@@ -14957,7 +14964,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f t="shared" ref="A488:A501" si="19">EDATE(A487,1)</f>
         <v>42430</v>
@@ -14978,7 +14985,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -14999,7 +15006,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -15020,7 +15027,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -15041,7 +15048,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -15062,7 +15069,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -15087,7 +15094,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>48</v>
@@ -15109,7 +15116,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>155</v>
@@ -15131,7 +15138,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13">
@@ -15149,7 +15156,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>42614</v>
@@ -15170,7 +15177,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -15195,7 +15202,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -15213,7 +15220,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>42675</v>
@@ -15234,7 +15241,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -15259,7 +15266,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15277,7 +15284,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="52" t="s">
         <v>378</v>
       </c>
@@ -15295,7 +15302,7 @@
       <c r="J503" s="12"/>
       <c r="K503" s="15"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42736</v>
       </c>
@@ -15317,7 +15324,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>60</v>
@@ -15339,7 +15346,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>48</v>
@@ -15361,7 +15368,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>48</v>
@@ -15381,7 +15388,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13">
@@ -15399,7 +15406,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f>EDATE(A504,1)</f>
         <v>42767</v>
@@ -15420,7 +15427,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" ref="A510:A513" si="20">EDATE(A509,1)</f>
         <v>42795</v>
@@ -15445,7 +15452,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13">
@@ -15463,7 +15470,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f>EDATE(A510,1)</f>
         <v>42826</v>
@@ -15484,7 +15491,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -15509,7 +15516,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>57</v>
@@ -15531,7 +15538,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>57</v>
@@ -15553,7 +15560,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15575,7 +15582,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13">
@@ -15593,7 +15600,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f>EDATE(A513,1)</f>
         <v>42887</v>
@@ -15618,7 +15625,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -15640,7 +15647,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -15658,7 +15665,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>42917</v>
@@ -15683,7 +15690,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>45</v>
@@ -15705,7 +15712,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>48</v>
@@ -15727,7 +15734,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13">
@@ -15745,7 +15752,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f>EDATE(A521,1)</f>
         <v>42948</v>
@@ -15766,7 +15773,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f>EDATE(A525,1)</f>
         <v>42979</v>
@@ -15791,7 +15798,7 @@
         <v>42834</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>48</v>
@@ -15813,7 +15820,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>48</v>
@@ -15835,7 +15842,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>77</v>
@@ -15857,7 +15864,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15879,7 +15886,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13">
@@ -15897,7 +15904,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f>EDATE(A526,1)</f>
         <v>43009</v>
@@ -15918,7 +15925,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <f>EDATE(A532,1)</f>
         <v>43040</v>
@@ -15943,7 +15950,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13">
@@ -15961,7 +15968,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <f>EDATE(A533,1)</f>
         <v>43070</v>
@@ -15986,7 +15993,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="48" t="s">
         <v>390</v>
       </c>
@@ -16004,7 +16011,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>43101</v>
       </c>
@@ -16026,7 +16033,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13">
@@ -16044,7 +16051,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <f>EDATE(A537,1)</f>
         <v>43132</v>
@@ -16069,7 +16076,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13">
@@ -16087,7 +16094,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <f>EDATE(A539,1)</f>
         <v>43160</v>
@@ -16108,7 +16115,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f t="shared" ref="A542:A555" si="21">EDATE(A541,1)</f>
         <v>43191</v>
@@ -16133,7 +16140,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -16155,7 +16162,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13">
@@ -16173,7 +16180,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f>EDATE(A542,1)</f>
         <v>43221</v>
@@ -16198,7 +16205,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -16221,7 +16228,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>48</v>
@@ -16243,7 +16250,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>48</v>
@@ -16265,7 +16272,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>398</v>
@@ -16287,7 +16294,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f>EDATE(A546,1)</f>
         <v>43282</v>
@@ -16312,7 +16319,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>53</v>
@@ -16334,7 +16341,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>401</v>
@@ -16356,7 +16363,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f>EDATE(A550,1)</f>
         <v>43313</v>
@@ -16381,7 +16388,7 @@
       <c r="J553" s="12"/>
       <c r="K553" s="15"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -16406,7 +16413,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -16431,7 +16438,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>68</v>
@@ -16453,7 +16460,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13">
@@ -16471,7 +16478,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <f>EDATE(A555,1)</f>
         <v>43405</v>
@@ -16492,7 +16499,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f>EDATE(A558,1)</f>
         <v>43435</v>
@@ -16517,7 +16524,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13">
@@ -16535,7 +16542,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="48" t="s">
         <v>407</v>
       </c>
@@ -16553,7 +16560,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>43466</v>
       </c>
@@ -16577,7 +16584,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>48</v>
@@ -16599,7 +16606,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>45</v>
@@ -16621,7 +16628,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13">
@@ -16639,7 +16646,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f>EDATE(A562,1)</f>
         <v>43497</v>
@@ -16660,7 +16667,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <f t="shared" ref="A567:A582" si="22">EDATE(A566,1)</f>
         <v>43525</v>
@@ -16681,7 +16688,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -16708,7 +16715,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -16729,7 +16736,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -16754,7 +16761,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -16772,7 +16779,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <f>EDATE(A570,1)</f>
         <v>43647</v>
@@ -16793,7 +16800,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -16818,7 +16825,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>48</v>
@@ -16840,7 +16847,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13">
@@ -16858,7 +16865,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>43709</v>
@@ -16883,7 +16890,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>112</v>
@@ -16903,7 +16910,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -16925,7 +16932,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -16943,7 +16950,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <f>EDATE(A576,1)</f>
         <v>43739</v>
@@ -16964,7 +16971,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -16985,7 +16992,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -17010,7 +17017,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>57</v>
@@ -17032,7 +17039,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -17050,7 +17057,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="48" t="s">
         <v>416</v>
       </c>
@@ -17068,7 +17075,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>43831</v>
       </c>
@@ -17092,7 +17099,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>417</v>
@@ -17112,7 +17119,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13">
@@ -17130,7 +17137,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>43862</v>
@@ -17151,7 +17158,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <f t="shared" ref="A590:A600" si="23">EDATE(A589,1)</f>
         <v>43891</v>
@@ -17172,7 +17179,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -17193,7 +17200,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -17214,7 +17221,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -17235,7 +17242,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -17256,7 +17263,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <f t="shared" si="23"/>
         <v>44044</v>
@@ -17277,7 +17284,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -17298,7 +17305,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -17321,7 +17328,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13">
@@ -17339,7 +17346,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <f>EDATE(A597,1)</f>
         <v>44136</v>
@@ -17360,7 +17367,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -17383,7 +17390,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>421</v>
@@ -17405,7 +17412,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13">
@@ -17423,7 +17430,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="48" t="s">
         <v>423</v>
       </c>
@@ -17441,7 +17448,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44197</v>
       </c>
@@ -17461,7 +17468,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <f>EDATE(A604,1)</f>
         <v>44228</v>
@@ -17482,7 +17489,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <f t="shared" ref="A606:A617" si="24">EDATE(A605,1)</f>
         <v>44256</v>
@@ -17502,7 +17509,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13">
@@ -17520,7 +17527,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>44287</v>
@@ -17541,7 +17548,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -17562,7 +17569,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -17585,7 +17592,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -17607,7 +17614,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13">
@@ -17625,7 +17632,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <f>EDATE(A610,1)</f>
         <v>44378</v>
@@ -17646,7 +17653,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -17667,7 +17674,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -17688,7 +17695,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -17709,7 +17716,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -17734,7 +17741,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>77</v>
@@ -17756,7 +17763,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -17774,7 +17781,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <f>EDATE(A617,1)</f>
         <v>44531</v>
@@ -17795,7 +17802,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="48" t="s">
         <v>428</v>
       </c>
@@ -17813,7 +17820,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>44562</v>
       </c>
@@ -17833,7 +17840,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <f>EDATE(A622,1)</f>
         <v>44593</v>
@@ -17854,7 +17861,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <f t="shared" ref="A624:A638" si="25">EDATE(A623,1)</f>
         <v>44621</v>
@@ -17877,7 +17884,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>462</v>
@@ -17899,7 +17906,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>44652</v>
@@ -17920,7 +17927,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -17947,7 +17954,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>48</v>
@@ -17969,7 +17976,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>53</v>
@@ -17989,7 +17996,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>458</v>
@@ -18011,7 +18018,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>461</v>
@@ -18031,7 +18038,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="49"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <f>EDATE(A627,1)</f>
         <v>44713</v>
@@ -18058,7 +18065,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>460</v>
@@ -18078,7 +18085,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="49"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <f>EDATE(A632,1)</f>
         <v>44743</v>
@@ -18103,7 +18110,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <f t="shared" si="25"/>
         <v>44774</v>
@@ -18128,7 +18135,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>456</v>
@@ -18150,7 +18157,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <f>EDATE(A635,1)</f>
         <v>44805</v>
@@ -18175,7 +18182,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <f t="shared" si="25"/>
         <v>44835</v>
@@ -18200,7 +18207,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>434</v>
@@ -18224,7 +18231,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>434</v>
@@ -18246,7 +18253,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>454</v>
@@ -18266,7 +18273,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="49"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>44866</v>
       </c>
@@ -18290,7 +18297,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>44896</v>
       </c>
@@ -18316,7 +18323,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>452</v>
@@ -18336,7 +18343,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="48" t="s">
         <v>433</v>
       </c>
@@ -18354,7 +18361,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>44927</v>
       </c>
@@ -18380,7 +18387,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>437</v>
@@ -18402,7 +18409,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>434</v>
@@ -18424,7 +18431,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>44958</v>
       </c>
@@ -18448,7 +18455,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>44986</v>
       </c>
@@ -18468,7 +18475,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>45017</v>
       </c>
@@ -18488,7 +18495,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>45047</v>
       </c>
@@ -18514,7 +18521,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="15" t="s">
         <v>441</v>
@@ -18536,7 +18543,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="15" t="s">
         <v>441</v>
@@ -18558,7 +18565,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="15" t="s">
         <v>444</v>
@@ -18580,7 +18587,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
       <c r="B656" s="15" t="s">
         <v>437</v>
@@ -18602,7 +18609,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>45078</v>
       </c>
@@ -18628,7 +18635,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>437</v>
@@ -18650,7 +18657,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>434</v>
@@ -18672,7 +18679,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>45108</v>
       </c>
@@ -18698,7 +18705,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>45139</v>
       </c>
@@ -18724,20 +18731,22 @@
         <v>451</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
         <v>45170</v>
       </c>
       <c r="B662" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="C662" s="13"/>
+      <c r="C662" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D662" s="39"/>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
-      <c r="G662" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G662" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H662" s="39">
         <v>1</v>
@@ -18748,29 +18757,37 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
         <v>45200</v>
       </c>
-      <c r="B663" s="20"/>
-      <c r="C663" s="13"/>
+      <c r="B663" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C663" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D663" s="39"/>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H663" s="39"/>
+      <c r="G663" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H663" s="39">
+        <v>1</v>
+      </c>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="20"/>
-    </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B664" s="20"/>
+      <c r="K663" s="49">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A664" s="40"/>
+      <c r="B664" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="C664" s="13"/>
       <c r="D664" s="39"/>
       <c r="E664" s="9"/>
@@ -18779,16 +18796,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H664" s="39"/>
+      <c r="H664" s="39">
+        <v>2</v>
+      </c>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
-      <c r="K664" s="20"/>
-    </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K664" s="49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B665" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B665" s="20" t="s">
+        <v>434</v>
+      </c>
       <c r="C665" s="13"/>
       <c r="D665" s="39"/>
       <c r="E665" s="9"/>
@@ -18797,18 +18820,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H665" s="39"/>
+      <c r="H665" s="39">
+        <v>1</v>
+      </c>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="20"/>
-    </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B666" s="20"/>
+      <c r="K665" s="49">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A666" s="40"/>
+      <c r="B666" s="20" t="s">
+        <v>464</v>
+      </c>
       <c r="C666" s="13"/>
-      <c r="D666" s="39"/>
+      <c r="D666" s="39">
+        <v>1</v>
+      </c>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
       <c r="G666" s="13" t="str">
@@ -18818,15 +18847,19 @@
       <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="20"/>
-    </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B667" s="20"/>
+      <c r="K666" s="49">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A667" s="40"/>
+      <c r="B667" s="20" t="s">
+        <v>464</v>
+      </c>
       <c r="C667" s="13"/>
-      <c r="D667" s="39"/>
+      <c r="D667" s="39">
+        <v>1</v>
+      </c>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
       <c r="G667" s="13" t="str">
@@ -18836,11 +18869,13 @@
       <c r="H667" s="39"/>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
-      <c r="K667" s="20"/>
-    </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K667" s="49">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18856,9 +18891,9 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18874,9 +18909,9 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18892,9 +18927,9 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18910,9 +18945,9 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18928,9 +18963,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18946,9 +18981,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18964,9 +18999,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18982,9 +19017,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19000,9 +19035,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19018,9 +19053,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19036,9 +19071,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -19054,9 +19089,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -19072,9 +19107,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -19090,9 +19125,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19108,9 +19143,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19126,9 +19161,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19144,9 +19179,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19162,9 +19197,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19180,9 +19215,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19198,9 +19233,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19216,9 +19251,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19234,9 +19269,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19252,9 +19287,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19270,9 +19305,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19288,9 +19323,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19306,9 +19341,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19324,9 +19359,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19342,9 +19377,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19360,9 +19395,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19378,9 +19413,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19396,9 +19431,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19414,9 +19449,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19432,9 +19467,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19450,9 +19485,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19468,9 +19503,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
-        <v>46419</v>
+        <v>46327</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19486,9 +19521,9 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
-        <v>46447</v>
+        <v>46357</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19504,9 +19539,9 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19522,9 +19557,9 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
-        <v>46508</v>
+        <v>46419</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19540,9 +19575,9 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19558,9 +19593,9 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19576,9 +19611,9 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
-        <v>46600</v>
+        <v>46508</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19594,9 +19629,9 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
-        <v>46631</v>
+        <v>46539</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19612,9 +19647,9 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
-        <v>46661</v>
+        <v>46569</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19630,9 +19665,9 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
-        <v>46692</v>
+        <v>46600</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19648,9 +19683,9 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
-        <v>46722</v>
+        <v>46631</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19666,9 +19701,9 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19684,9 +19719,9 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
-        <v>46784</v>
+        <v>46692</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19702,9 +19737,9 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
-        <v>46813</v>
+        <v>46722</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19720,9 +19755,9 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
-        <v>46844</v>
+        <v>46753</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19738,9 +19773,9 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
-        <v>46874</v>
+        <v>46784</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19756,9 +19791,9 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
-        <v>46905</v>
+        <v>46813</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19774,9 +19809,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
-        <v>46935</v>
+        <v>46844</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19792,9 +19827,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
-        <v>46966</v>
+        <v>46874</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19810,9 +19845,9 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
-        <v>46997</v>
+        <v>46905</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19828,9 +19863,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
-        <v>47027</v>
+        <v>46935</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19846,9 +19881,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
-        <v>47058</v>
+        <v>46966</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19864,9 +19899,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
-        <v>47088</v>
+        <v>46997</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19882,9 +19917,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
-        <v>47119</v>
+        <v>47027</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19900,9 +19935,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
-        <v>47150</v>
+        <v>47058</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19918,9 +19953,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
-        <v>47178</v>
+        <v>47088</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19936,9 +19971,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
-        <v>47209</v>
+        <v>47119</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19954,9 +19989,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
-        <v>47239</v>
+        <v>47150</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19972,9 +20007,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
-        <v>47270</v>
+        <v>47178</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19990,9 +20025,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
-        <v>47300</v>
+        <v>47209</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20008,9 +20043,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
-        <v>47331</v>
+        <v>47239</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20026,9 +20061,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
-        <v>47362</v>
+        <v>47270</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20044,9 +20079,9 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
-        <v>47392</v>
+        <v>47300</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20062,9 +20097,9 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
-        <v>47423</v>
+        <v>47331</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20080,9 +20115,9 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
-        <v>47453</v>
+        <v>47362</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20098,9 +20133,9 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
-        <v>47484</v>
+        <v>47392</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -20116,9 +20151,9 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40">
-        <v>47515</v>
+        <v>47423</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -20134,9 +20169,9 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40">
-        <v>47543</v>
+        <v>47453</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -20152,9 +20187,9 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40">
-        <v>47574</v>
+        <v>47484</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -20170,9 +20205,9 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40">
-        <v>47604</v>
+        <v>47515</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -20188,9 +20223,9 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40">
-        <v>47635</v>
+        <v>47543</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -20206,9 +20241,9 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40">
-        <v>47665</v>
+        <v>47574</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -20224,9 +20259,9 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40">
-        <v>47696</v>
+        <v>47604</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -20242,9 +20277,9 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40">
-        <v>47727</v>
+        <v>47635</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -20260,9 +20295,9 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40">
-        <v>47757</v>
+        <v>47665</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -20278,9 +20313,9 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40">
-        <v>47788</v>
+        <v>47696</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -20296,9 +20331,9 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40">
-        <v>47818</v>
+        <v>47727</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -20314,9 +20349,9 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40">
-        <v>47849</v>
+        <v>47757</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -20332,9 +20367,9 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40">
-        <v>47880</v>
+        <v>47788</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -20350,9 +20385,9 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40">
-        <v>47908</v>
+        <v>47818</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -20368,9 +20403,9 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40">
-        <v>47939</v>
+        <v>47849</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -20386,9 +20421,9 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40">
-        <v>47969</v>
+        <v>47880</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -20404,9 +20439,9 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40">
-        <v>48000</v>
+        <v>47908</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -20422,9 +20457,9 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40">
-        <v>48030</v>
+        <v>47939</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -20440,9 +20475,9 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40">
-        <v>48061</v>
+        <v>47969</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -20458,9 +20493,9 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40">
-        <v>48092</v>
+        <v>48000</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -20476,9 +20511,9 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40">
-        <v>48122</v>
+        <v>48030</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -20494,9 +20529,9 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40">
-        <v>48153</v>
+        <v>48061</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -20512,9 +20547,9 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40">
-        <v>48183</v>
+        <v>48092</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -20530,9 +20565,9 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40">
-        <v>48214</v>
+        <v>48122</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -20548,9 +20583,9 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40">
-        <v>48245</v>
+        <v>48153</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -20566,9 +20601,9 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
-        <v>48274</v>
+        <v>48183</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -20584,9 +20619,9 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40">
-        <v>48305</v>
+        <v>48214</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -20602,9 +20637,9 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40">
-        <v>48335</v>
+        <v>48245</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -20620,9 +20655,9 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40">
-        <v>48366</v>
+        <v>48274</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -20638,9 +20673,9 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40">
-        <v>48396</v>
+        <v>48305</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -20656,9 +20691,9 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40">
-        <v>48427</v>
+        <v>48335</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -20674,9 +20709,9 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40">
-        <v>48458</v>
+        <v>48366</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -20691,6 +20726,60 @@
       <c r="I770" s="9"/>
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A771" s="40">
+        <v>48396</v>
+      </c>
+      <c r="B771" s="20"/>
+      <c r="C771" s="13"/>
+      <c r="D771" s="39"/>
+      <c r="E771" s="9"/>
+      <c r="F771" s="20"/>
+      <c r="G771" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H771" s="39"/>
+      <c r="I771" s="9"/>
+      <c r="J771" s="11"/>
+      <c r="K771" s="20"/>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A772" s="40">
+        <v>48427</v>
+      </c>
+      <c r="B772" s="20"/>
+      <c r="C772" s="13"/>
+      <c r="D772" s="39"/>
+      <c r="E772" s="9"/>
+      <c r="F772" s="20"/>
+      <c r="G772" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H772" s="39"/>
+      <c r="I772" s="9"/>
+      <c r="J772" s="11"/>
+      <c r="K772" s="20"/>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A773" s="40">
+        <v>48458</v>
+      </c>
+      <c r="B773" s="20"/>
+      <c r="C773" s="13"/>
+      <c r="D773" s="39"/>
+      <c r="E773" s="9"/>
+      <c r="F773" s="20"/>
+      <c r="G773" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H773" s="39"/>
+      <c r="I773" s="9"/>
+      <c r="J773" s="11"/>
+      <c r="K773" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20707,10 +20796,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20733,7 +20822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20741,21 +20830,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -20768,7 +20857,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20797,7 +20886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -20823,17 +20912,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20854,7 +20943,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20881,7 +20970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20907,7 +20996,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20933,7 +21022,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20959,7 +21048,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20985,7 +21074,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21011,7 +21100,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21037,7 +21126,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21063,7 +21152,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21083,7 +21172,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21103,7 +21192,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21123,7 +21212,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21144,7 +21233,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21165,7 +21254,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21186,7 +21275,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21207,7 +21296,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21228,7 +21317,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21249,7 +21338,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21270,7 +21359,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21291,7 +21380,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21312,7 +21401,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21333,7 +21422,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21354,7 +21443,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21375,7 +21464,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21396,7 +21485,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21417,7 +21506,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21438,7 +21527,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21459,7 +21548,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21480,7 +21569,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21501,7 +21590,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21522,7 +21611,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21543,7 +21632,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21552,7 +21641,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21561,7 +21650,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21570,7 +21659,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21579,7 +21668,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21588,7 +21677,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21597,7 +21686,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21606,7 +21695,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21615,7 +21704,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21624,7 +21713,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21633,7 +21722,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21642,7 +21731,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21651,7 +21740,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21660,7 +21749,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21669,7 +21758,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21678,7 +21767,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21687,7 +21776,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21696,7 +21785,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21705,7 +21794,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21714,7 +21803,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21723,7 +21812,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21732,7 +21821,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21741,7 +21830,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21750,7 +21839,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21759,7 +21848,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21768,7 +21857,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21777,7 +21866,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21786,7 +21875,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21795,7 +21884,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21804,7 +21893,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
